--- a/notes/methods_summary.xlsx
+++ b/notes/methods_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Drive/PhD/projects/imputeHD-comp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15161B4-2A5E-7A4B-9827-B3FEFB92D0DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF513B9-D183-0541-80A6-76BC7BDBEAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{8EC2EA43-2492-3945-9C40-884529F5A3BF}"/>
+    <workbookView xWindow="33600" yWindow="-2440" windowWidth="38400" windowHeight="21600" xr2:uid="{8EC2EA43-2492-3945-9C40-884529F5A3BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={764E73A3-F577-B846-929B-7CAC59E58F90}</author>
+    <author>tc={C9462A43-6A0C-AD43-8B20-0B9927AA2E84}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{764E73A3-F577-B846-929B-7CAC59E58F90}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The CALIBER and mice.impute.rf mice appraoch should be equivalent</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{C9462A43-6A0C-AD43-8B20-0B9927AA2E84}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The true active set is the collection of variables that are used in the datagenartion of the variables that will have missingness imposed. It is NOT the set of vairables used to define the probability of having a missing values on a specifc variable.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Methods</t>
   </si>
@@ -58,9 +85,6 @@
   </si>
   <si>
     <t>PCA based</t>
-  </si>
-  <si>
-    <t>Freq-Reg MICE</t>
   </si>
   <si>
     <t>MissForest</t>
@@ -122,16 +146,152 @@
     <t>Imputation validity</t>
   </si>
   <si>
-    <t>• outcome variable flexibility (coding advantage)
-• interaction representation
-• non iterative (sequential)?</t>
+    <t>Ref Paper</t>
+  </si>
+  <si>
+    <t>• outcome variable flexibility (coding advantage): CART approximates the conditional distribution of a univariate outcome from multiple predicotrs without making parametric assumtions 
+• interaction and nonlinear relationship w/out parametric assumptions
+• little tuning (advised no trimming which is for interpretation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest </t>
+  </si>
+  <si>
+    <t>impute.norm.boot function in mice R package (linear reg applied to bootsrap sampèle to account for sampling vairability in estimating imputation modesl), but: 
+1. using random forest instead of linear regression to predict the conditional means
+2. drawing imputation from these predicted means using out-of-bag- mean square error as estiatmor of residual variance</t>
+  </si>
+  <si>
+    <t>• Categorical predictors with many levels cause computational difficulties (R package hard-caps this to 32 levels)
+• Gets more and more unstable / variable with more predictors (see DooveEtAl2014)</t>
+  </si>
+  <si>
+    <t>ShahEtAl 2014
+﻿
+mice.impute.rf() from mice R pack
+Doove Et Al 2014</t>
+  </si>
+  <si>
+    <t>Burgette Reiter 2010
+Doove Et Al 2014</t>
+  </si>
+  <si>
+    <t>• mantains good performance even when true active set (q) and 
+dimensionality (p) get larger</t>
+  </si>
+  <si>
+    <t>DengEtAl 2016
+ZhaoLong2016</t>
+  </si>
+  <si>
+    <t>• substantial bias w/ multivariate missing data patterns (DengEtAl2016)</t>
+  </si>
+  <si>
+    <t>ZhaoLong2016</t>
+  </si>
+  <si>
+    <t>For a given j-th column of a dataset
+1) Generate a bootstrap version of X 
+2) Use observed part of j to fit regularized regression
+3) Predict missing part of j from predictive distirbution based on estiamtes in 2 and original data in X</t>
+  </si>
+  <si>
+    <t>For a given j-th column of a dataset
+1) Use observed part of j to fit regularized regression and select an active set of preidcotrs
+2) Approximate posterior distribution of parameters based on standard inference procedure
+3) Predict missing part of j from predictive distirbution based on estiamtes in 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Formulate hierarchical Blasso model
+2) Simulate draw from posterior distirbution of parameters
+3) Simulate draw from posterior predictive distribution for missing values </t>
+  </si>
+  <si>
+    <t>• Prior decisions
+• Needs work to adapt to categorical data</t>
+  </si>
+  <si>
+    <t>Extract PCs from auxuliary vairables and then use them in a run of mice alogisde the analysis model for imputation</t>
+  </si>
+  <si>
+    <t>HowardEtAl2015</t>
+  </si>
+  <si>
+    <t>• assumes a uniformly important set of auxiliary predictors and cannot discern between important and non important predictors for extraction of PCs. As a result, PCs might be a bunch of junk
+•  Tuning of the number of PCs to extract is required</t>
+  </si>
+  <si>
+    <t>• Tuning of penalisation paramters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• avoids omission of important causes of missingness in the imputation models
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• better predictive performance than regular regression/classification trees
+• better performance when there are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interactions between predictors of the analysis model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and imputation needs to be done on the interaction term.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• mantains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good performance even when the true active set gets larger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (in paticular it is better than the MICE-TRUE method)
+• mantains lower bias and good coverage as dimensionality increases (compared to IURR DURR )</t>
+    </r>
+  </si>
+  <si>
+    <t>• Tunig choice of number of trees (ShahEtAl 2014 say greater number pushes bias towards 0. w/ 10 to 20 give minimal bias in their set up, but this would need to be tailored to the data)
+• Assumption: residuals from RF MICE imp models are assumed to be normally distributed with constant variance
+• Assumption: distribution of missing values is assumed to be equal to the distirbution of the observed values. if vioalted bias increases.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +307,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,10 +324,39 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -168,12 +365,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -191,6 +400,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Edoardo Costantini" id="{53850B4A-255D-9D46-8F34-1A5DBFBFD9C0}" userId="S::e.costantini@tilburguniversity.edu::16f71339-713f-4b60-a6ec-2581a9246dbf" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,92 +703,177 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2020-06-02T08:42:35.62" personId="{53850B4A-255D-9D46-8F34-1A5DBFBFD9C0}" id="{764E73A3-F577-B846-929B-7CAC59E58F90}">
+    <text>The CALIBER and mice.impute.rf mice appraoch should be equivalent</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2020-06-03T08:01:53.61" personId="{53850B4A-255D-9D46-8F34-1A5DBFBFD9C0}" id="{C9462A43-6A0C-AD43-8B20-0B9927AA2E84}">
+    <text>The true active set is the collection of variables that are used in the datagenartion of the variables that will have missingness imposed. It is NOT the set of vairables used to define the probability of having a missing values on a specifc variable.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60338DE7-4D88-1343-B16F-A020636AB67A}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60338DE7-4D88-1343-B16F-A020636AB67A}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="234" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="5" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>